--- a/sprite designer.xlsx
+++ b/sprite designer.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giac/Coding/cgahscroll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82510E70-839C-C14F-B29C-35112B592F44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45463A2D-DFC0-A044-B457-41E99172BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="680" windowWidth="20620" windowHeight="17140" xr2:uid="{CCA8C1F7-F8F0-4942-9123-A5AEFC3B1828}"/>
+    <workbookView xWindow="8100" yWindow="5300" windowWidth="20620" windowHeight="12520" activeTab="2" xr2:uid="{CCA8C1F7-F8F0-4942-9123-A5AEFC3B1828}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1244,7 +1245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19A2461F-61B0-2E44-AABB-E8E0EF13BD2E}">
   <dimension ref="A2:AZ145"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AK145" sqref="AK2:AZ145"/>
     </sheetView>
   </sheetViews>
@@ -14558,4 +14559,313 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5150EFE3-6E79-624B-9939-E814FC7E5C54}">
+  <dimension ref="A1:AO2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AO2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="41" width="4.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>12</v>
+      </c>
+      <c r="N1">
+        <v>13</v>
+      </c>
+      <c r="O1">
+        <v>14</v>
+      </c>
+      <c r="P1">
+        <v>15</v>
+      </c>
+      <c r="Q1">
+        <v>16</v>
+      </c>
+      <c r="R1">
+        <v>17</v>
+      </c>
+      <c r="S1">
+        <v>18</v>
+      </c>
+      <c r="T1">
+        <v>19</v>
+      </c>
+      <c r="U1">
+        <v>20</v>
+      </c>
+      <c r="V1">
+        <v>21</v>
+      </c>
+      <c r="W1">
+        <v>22</v>
+      </c>
+      <c r="X1">
+        <v>23</v>
+      </c>
+      <c r="Y1">
+        <v>24</v>
+      </c>
+      <c r="Z1">
+        <v>25</v>
+      </c>
+      <c r="AA1">
+        <v>26</v>
+      </c>
+      <c r="AB1">
+        <v>27</v>
+      </c>
+      <c r="AC1">
+        <v>28</v>
+      </c>
+      <c r="AD1">
+        <v>29</v>
+      </c>
+      <c r="AE1">
+        <v>30</v>
+      </c>
+      <c r="AF1">
+        <v>31</v>
+      </c>
+      <c r="AG1">
+        <v>32</v>
+      </c>
+      <c r="AH1">
+        <v>33</v>
+      </c>
+      <c r="AI1">
+        <v>34</v>
+      </c>
+      <c r="AJ1">
+        <v>35</v>
+      </c>
+      <c r="AK1">
+        <v>36</v>
+      </c>
+      <c r="AL1">
+        <v>37</v>
+      </c>
+      <c r="AM1">
+        <v>38</v>
+      </c>
+      <c r="AN1">
+        <v>39</v>
+      </c>
+      <c r="AO1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:41" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <f>COS(A1*PI()/20)*50+100</f>
+        <v>150</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:AI2" si="0">COS(B1*PI()/20)*50+100</f>
+        <v>149.38441702975689</v>
+      </c>
+      <c r="C2">
+        <f t="shared" si="0"/>
+        <v>147.55282581475768</v>
+      </c>
+      <c r="D2">
+        <f t="shared" si="0"/>
+        <v>144.55032620941839</v>
+      </c>
+      <c r="E2">
+        <f t="shared" si="0"/>
+        <v>140.45084971874738</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>135.35533905932738</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>129.38926261462365</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>122.69952498697734</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>115.45084971874738</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>107.82172325201155</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>92.178276747988477</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>84.549150281252636</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>77.300475013022663</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>70.610737385376353</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>64.644660940672622</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>59.549150281252636</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>55.449673790581613</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>52.447174185242325</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>50.615582970243118</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>50.615582970243111</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>52.447174185242311</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>55.449673790581606</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>59.549150281252629</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>64.644660940672622</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>70.610737385376339</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>77.300475013022648</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>84.549150281252622</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>92.178276747988448</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>99.999999999999986</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>107.82172325201154</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>115.45084971874736</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>122.69952498697734</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>129.38926261462365</v>
+      </c>
+      <c r="AJ2">
+        <f>COS(AJ1*PI()/20)*50+100</f>
+        <v>135.35533905932738</v>
+      </c>
+      <c r="AK2">
+        <f t="shared" ref="AK2" si="1">COS(AK1*PI()/20)*50+100</f>
+        <v>140.45084971874735</v>
+      </c>
+      <c r="AL2">
+        <f t="shared" ref="AL2" si="2">COS(AL1*PI()/20)*50+100</f>
+        <v>144.55032620941839</v>
+      </c>
+      <c r="AM2">
+        <f t="shared" ref="AM2" si="3">COS(AM1*PI()/20)*50+100</f>
+        <v>147.55282581475768</v>
+      </c>
+      <c r="AN2">
+        <f t="shared" ref="AN2" si="4">COS(AN1*PI()/20)*50+100</f>
+        <v>149.38441702975689</v>
+      </c>
+      <c r="AO2">
+        <f t="shared" ref="AO2" si="5">COS(AO1*PI()/20)*50+100</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/sprite designer.xlsx
+++ b/sprite designer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/giac/Coding/cgahscroll/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45463A2D-DFC0-A044-B457-41E99172BD24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{116B5C2D-7623-E94E-96EC-6C3A7E100435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="5300" windowWidth="20620" windowHeight="12520" activeTab="2" xr2:uid="{CCA8C1F7-F8F0-4942-9123-A5AEFC3B1828}"/>
+    <workbookView xWindow="10520" yWindow="5300" windowWidth="18200" windowHeight="12520" activeTab="2" xr2:uid="{CCA8C1F7-F8F0-4942-9123-A5AEFC3B1828}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14566,7 +14566,7 @@
   <dimension ref="A1:AO2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:AO2"/>
+      <selection activeCell="AO5" sqref="AO5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -14700,169 +14700,169 @@
       </c>
     </row>
     <row r="2" spans="1:41" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <f>COS(A1*PI()/20)*50+100</f>
-        <v>150</v>
-      </c>
-      <c r="B2">
-        <f t="shared" ref="B2:AI2" si="0">COS(B1*PI()/20)*50+100</f>
-        <v>149.38441702975689</v>
-      </c>
-      <c r="C2">
+      <c r="A2" t="str">
+        <f>TEXT(COS(A1*PI()/20)*50+100,"###")&amp;","</f>
+        <v>150,</v>
+      </c>
+      <c r="B2" t="str">
+        <f t="shared" ref="B2:AO2" si="0">TEXT(COS(B1*PI()/20)*50+100,"###")&amp;","</f>
+        <v>149,</v>
+      </c>
+      <c r="C2" t="str">
         <f t="shared" si="0"/>
-        <v>147.55282581475768</v>
-      </c>
-      <c r="D2">
+        <v>148,</v>
+      </c>
+      <c r="D2" t="str">
         <f t="shared" si="0"/>
-        <v>144.55032620941839</v>
-      </c>
-      <c r="E2">
+        <v>145,</v>
+      </c>
+      <c r="E2" t="str">
         <f t="shared" si="0"/>
-        <v>140.45084971874738</v>
-      </c>
-      <c r="F2">
+        <v>140,</v>
+      </c>
+      <c r="F2" t="str">
         <f t="shared" si="0"/>
-        <v>135.35533905932738</v>
-      </c>
-      <c r="G2">
+        <v>135,</v>
+      </c>
+      <c r="G2" t="str">
         <f t="shared" si="0"/>
-        <v>129.38926261462365</v>
-      </c>
-      <c r="H2">
+        <v>129,</v>
+      </c>
+      <c r="H2" t="str">
         <f t="shared" si="0"/>
-        <v>122.69952498697734</v>
-      </c>
-      <c r="I2">
+        <v>123,</v>
+      </c>
+      <c r="I2" t="str">
         <f t="shared" si="0"/>
-        <v>115.45084971874738</v>
-      </c>
-      <c r="J2">
+        <v>115,</v>
+      </c>
+      <c r="J2" t="str">
         <f t="shared" si="0"/>
-        <v>107.82172325201155</v>
-      </c>
-      <c r="K2">
+        <v>108,</v>
+      </c>
+      <c r="K2" t="str">
         <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="L2">
+        <v>100,</v>
+      </c>
+      <c r="L2" t="str">
         <f t="shared" si="0"/>
-        <v>92.178276747988477</v>
-      </c>
-      <c r="M2">
+        <v>92,</v>
+      </c>
+      <c r="M2" t="str">
         <f t="shared" si="0"/>
-        <v>84.549150281252636</v>
-      </c>
-      <c r="N2">
+        <v>85,</v>
+      </c>
+      <c r="N2" t="str">
         <f t="shared" si="0"/>
-        <v>77.300475013022663</v>
-      </c>
-      <c r="O2">
+        <v>77,</v>
+      </c>
+      <c r="O2" t="str">
         <f t="shared" si="0"/>
-        <v>70.610737385376353</v>
-      </c>
-      <c r="P2">
+        <v>71,</v>
+      </c>
+      <c r="P2" t="str">
         <f t="shared" si="0"/>
-        <v>64.644660940672622</v>
-      </c>
-      <c r="Q2">
+        <v>65,</v>
+      </c>
+      <c r="Q2" t="str">
         <f t="shared" si="0"/>
-        <v>59.549150281252636</v>
-      </c>
-      <c r="R2">
+        <v>60,</v>
+      </c>
+      <c r="R2" t="str">
         <f t="shared" si="0"/>
-        <v>55.449673790581613</v>
-      </c>
-      <c r="S2">
+        <v>55,</v>
+      </c>
+      <c r="S2" t="str">
         <f t="shared" si="0"/>
-        <v>52.447174185242325</v>
-      </c>
-      <c r="T2">
+        <v>52,</v>
+      </c>
+      <c r="T2" t="str">
         <f t="shared" si="0"/>
-        <v>50.615582970243118</v>
-      </c>
-      <c r="U2">
+        <v>51,</v>
+      </c>
+      <c r="U2" t="str">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="V2">
+        <v>50,</v>
+      </c>
+      <c r="V2" t="str">
         <f t="shared" si="0"/>
-        <v>50.615582970243111</v>
-      </c>
-      <c r="W2">
+        <v>51,</v>
+      </c>
+      <c r="W2" t="str">
         <f t="shared" si="0"/>
-        <v>52.447174185242311</v>
-      </c>
-      <c r="X2">
+        <v>52,</v>
+      </c>
+      <c r="X2" t="str">
         <f t="shared" si="0"/>
-        <v>55.449673790581606</v>
-      </c>
-      <c r="Y2">
+        <v>55,</v>
+      </c>
+      <c r="Y2" t="str">
         <f t="shared" si="0"/>
-        <v>59.549150281252629</v>
-      </c>
-      <c r="Z2">
+        <v>60,</v>
+      </c>
+      <c r="Z2" t="str">
         <f t="shared" si="0"/>
-        <v>64.644660940672622</v>
-      </c>
-      <c r="AA2">
+        <v>65,</v>
+      </c>
+      <c r="AA2" t="str">
         <f t="shared" si="0"/>
-        <v>70.610737385376339</v>
-      </c>
-      <c r="AB2">
+        <v>71,</v>
+      </c>
+      <c r="AB2" t="str">
         <f t="shared" si="0"/>
-        <v>77.300475013022648</v>
-      </c>
-      <c r="AC2">
+        <v>77,</v>
+      </c>
+      <c r="AC2" t="str">
         <f t="shared" si="0"/>
-        <v>84.549150281252622</v>
-      </c>
-      <c r="AD2">
+        <v>85,</v>
+      </c>
+      <c r="AD2" t="str">
         <f t="shared" si="0"/>
-        <v>92.178276747988448</v>
-      </c>
-      <c r="AE2">
+        <v>92,</v>
+      </c>
+      <c r="AE2" t="str">
         <f t="shared" si="0"/>
-        <v>99.999999999999986</v>
-      </c>
-      <c r="AF2">
+        <v>100,</v>
+      </c>
+      <c r="AF2" t="str">
         <f t="shared" si="0"/>
-        <v>107.82172325201154</v>
-      </c>
-      <c r="AG2">
+        <v>108,</v>
+      </c>
+      <c r="AG2" t="str">
         <f t="shared" si="0"/>
-        <v>115.45084971874736</v>
-      </c>
-      <c r="AH2">
+        <v>115,</v>
+      </c>
+      <c r="AH2" t="str">
         <f t="shared" si="0"/>
-        <v>122.69952498697734</v>
-      </c>
-      <c r="AI2">
+        <v>123,</v>
+      </c>
+      <c r="AI2" t="str">
         <f t="shared" si="0"/>
-        <v>129.38926261462365</v>
-      </c>
-      <c r="AJ2">
-        <f>COS(AJ1*PI()/20)*50+100</f>
-        <v>135.35533905932738</v>
-      </c>
-      <c r="AK2">
-        <f t="shared" ref="AK2" si="1">COS(AK1*PI()/20)*50+100</f>
-        <v>140.45084971874735</v>
-      </c>
-      <c r="AL2">
-        <f t="shared" ref="AL2" si="2">COS(AL1*PI()/20)*50+100</f>
-        <v>144.55032620941839</v>
-      </c>
-      <c r="AM2">
-        <f t="shared" ref="AM2" si="3">COS(AM1*PI()/20)*50+100</f>
-        <v>147.55282581475768</v>
-      </c>
-      <c r="AN2">
-        <f t="shared" ref="AN2" si="4">COS(AN1*PI()/20)*50+100</f>
-        <v>149.38441702975689</v>
-      </c>
-      <c r="AO2">
-        <f t="shared" ref="AO2" si="5">COS(AO1*PI()/20)*50+100</f>
-        <v>150</v>
+        <v>129,</v>
+      </c>
+      <c r="AJ2" t="str">
+        <f t="shared" si="0"/>
+        <v>135,</v>
+      </c>
+      <c r="AK2" t="str">
+        <f t="shared" si="0"/>
+        <v>140,</v>
+      </c>
+      <c r="AL2" t="str">
+        <f t="shared" si="0"/>
+        <v>145,</v>
+      </c>
+      <c r="AM2" t="str">
+        <f t="shared" si="0"/>
+        <v>148,</v>
+      </c>
+      <c r="AN2" t="str">
+        <f t="shared" si="0"/>
+        <v>149,</v>
+      </c>
+      <c r="AO2" t="str">
+        <f t="shared" si="0"/>
+        <v>150,</v>
       </c>
     </row>
   </sheetData>
